--- a/medicine/Enfance/Mildred_Wirt_Benson/Mildred_Wirt_Benson.xlsx
+++ b/medicine/Enfance/Mildred_Wirt_Benson/Mildred_Wirt_Benson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mildred Wirt Benson, née le 10 juillet 1905 à Ladora, Iowa, et morte le 28 mai 2002 à Toledo, Ohio, est une romancière américaine de romans pour la jeunesse ayant travaillé au sein d'un  collectif d'écrivains pour la compagnie Stratemeyer Syndicate. Elle a utilisé de nombreux pseudonymes[1] et est surtout connue pour avoir écrit, sous le nom de plume de Caroline Quine (Carolyn Keene en VO), 23 des trente premiers romans originaux de la série à succès Alice (Nancy Drew en VO) de 1929 à 1947, ainsi que onze volumes de la série Une enquête des sœurs Parker de 1936 à 1954. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mildred Wirt Benson, née le 10 juillet 1905 à Ladora, Iowa, et morte le 28 mai 2002 à Toledo, Ohio, est une romancière américaine de romans pour la jeunesse ayant travaillé au sein d'un  collectif d'écrivains pour la compagnie Stratemeyer Syndicate. Elle a utilisé de nombreux pseudonymes et est surtout connue pour avoir écrit, sous le nom de plume de Caroline Quine (Carolyn Keene en VO), 23 des trente premiers romans originaux de la série à succès Alice (Nancy Drew en VO) de 1929 à 1947, ainsi que onze volumes de la série Une enquête des sœurs Parker de 1936 à 1954. 
 Elle est la première des vingt-huit auteurs qui se relayeront jusqu'à nos jours pour écrire les aventures de la célèbre jeune détective américaine Alice Roy.
 </t>
         </is>
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fille de médecin, grande nageuse, Mildred dite Millie, est diplômée en langue anglaise à l'université d'Iowa en 1925. L'année suivante, elle est engagée par la compagnie Stratemeyer Syndicate. Elle a alors vingt et un ans. Son travail consiste à développer les scénarios de séries que lui fournit son patron, Edward Stratemeyer, propriétaire de la compagnie. Ces romans sont ensuite vendus à des maisons d'éditions pour être publiés. Selon les termes du contrat signé par les rédacteurs au service de la Stratemeyer Syndicate, l'identité des véritables écrivains des séries devait rester secrète[2] ; les auteurs touchaient un chèque pour chaque roman.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fille de médecin, grande nageuse, Mildred dite Millie, est diplômée en langue anglaise à l'université d'Iowa en 1925. L'année suivante, elle est engagée par la compagnie Stratemeyer Syndicate. Elle a alors vingt et un ans. Son travail consiste à développer les scénarios de séries que lui fournit son patron, Edward Stratemeyer, propriétaire de la compagnie. Ces romans sont ensuite vendus à des maisons d'éditions pour être publiés. Selon les termes du contrat signé par les rédacteurs au service de la Stratemeyer Syndicate, l'identité des véritables écrivains des séries devait rester secrète ; les auteurs touchaient un chèque pour chaque roman.
 Mildred retournera sur les bancs de l'Université d'Iowa et obtiendra un diplôme de journaliste en 1927. Elle est la première diplômée en journalisme de cette université. Elle épouse Asa Wirt. À la mort de celui-ci, en 1947, elle se remarie avec George A. Benson, qui décède en 1959.
 Elle a travaillé pendant cinquante-huit ans comme journaliste, écrivant un éditorial hebdomadaire pour le journal Toledo Blade, et continuera à écrire jusqu'à sa mort en 2002, à l'âge de quatre-vingt-seize ans.
-Mildred a écrit cent-trente six livres[3] sous une douzaine de noms de plume différents. Sous le nom de plume de Caroline Quine, elle a notamment écrit onze titres de la série Une enquête des sœurs Parker. Elle a publié sous son propre nom tous les titres de la série pour jeunes filles : Penny Parker, dont elle disait que c'était sa série préférée.
+Mildred a écrit cent-trente six livres sous une douzaine de noms de plume différents. Sous le nom de plume de Caroline Quine, elle a notamment écrit onze titres de la série Une enquête des sœurs Parker. Elle a publié sous son propre nom tous les titres de la série pour jeunes filles : Penny Parker, dont elle disait que c'était sa série préférée.
 </t>
         </is>
       </c>
@@ -546,15 +560,17 @@
           <t>La série Alice</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est en 1929 qu'Edward Stratemayer crée le personnage d'Alice (il avait également créé Les Frères Hardy - The Hardy Boys - en 1927, une série à succès destinée aux garçons). Edward Stratemayer invente le nom de plume « Caroline Quine » et confie l'écriture des romans de la série à des rédacteurs embauchés par lui. Un contrat liait les rédacteurs, qui exigeait de garder secrète leur identité au grand public[2]. Mais en 1980, au cours d'un procès et grâce à la pression de nombreux fans qui cherchaient à percer « le mystère Carolyn Keene », le Stratemeyer Syndicate dévoile le véritable nom des rédacteurs. Edward Stratemayer meurt en 1930 et ne connaîtra pas l'étendue du succès du personnage qu'il venait de créer.
-Mildred Wirt Benson, le premier auteur de la série, est considérée par les fans américains comme l'auteur qui a su donner une personnalité à l’héroïne[4]. Mildred a vingt-quatre ans quand elle écrit le premier volume d' Alice et elle ne souhaitait pas attribuer à l’héroïne des caractéristiques mièvres et stéréotypés comme c’était souvent le cas avec les personnages féminins des romans pour jeunes filles de l'époque[5]. Elle fait donc d'Alice une héroïne résolument moderne.
-Dans un entretien accordé au journal américain New York Times publiée le 9 mai 1993, elle déclare : « C'est inconsciemment que je l'ai [Alice] modelée comme moi. Je l'ai créée jolie, intelligente et perfectionniste. J'ai fait d'elle le concept de la fille que j'aurais aimé être. (...) J'ai assez aimé le personnage [Alice] dès le début. De nos jours, ce type de femme est fréquent, mais à l'époque [années trente], c'était un genre nouveau, quoique pas pour moi. Je pensais tout naturellement que les filles pouvaient faire les choses que faisaient les garçons. »[6] 
-Mildred Wirt Benson touchait un chèque de 125 dollars pour chaque roman de la série Alice qu'elle écrivait[7]. Le titre préféré de l'auteur était Alice au manoir hanté (The Hidden Staircase), le second tome de la série.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est en 1929 qu'Edward Stratemayer crée le personnage d'Alice (il avait également créé Les Frères Hardy - The Hardy Boys - en 1927, une série à succès destinée aux garçons). Edward Stratemayer invente le nom de plume « Caroline Quine » et confie l'écriture des romans de la série à des rédacteurs embauchés par lui. Un contrat liait les rédacteurs, qui exigeait de garder secrète leur identité au grand public. Mais en 1980, au cours d'un procès et grâce à la pression de nombreux fans qui cherchaient à percer « le mystère Carolyn Keene », le Stratemeyer Syndicate dévoile le véritable nom des rédacteurs. Edward Stratemayer meurt en 1930 et ne connaîtra pas l'étendue du succès du personnage qu'il venait de créer.
+Mildred Wirt Benson, le premier auteur de la série, est considérée par les fans américains comme l'auteur qui a su donner une personnalité à l’héroïne. Mildred a vingt-quatre ans quand elle écrit le premier volume d' Alice et elle ne souhaitait pas attribuer à l’héroïne des caractéristiques mièvres et stéréotypés comme c’était souvent le cas avec les personnages féminins des romans pour jeunes filles de l'époque. Elle fait donc d'Alice une héroïne résolument moderne.
+Dans un entretien accordé au journal américain New York Times publiée le 9 mai 1993, elle déclare : « C'est inconsciemment que je l'ai [Alice] modelée comme moi. Je l'ai créée jolie, intelligente et perfectionniste. J'ai fait d'elle le concept de la fille que j'aurais aimé être. (...) J'ai assez aimé le personnage [Alice] dès le début. De nos jours, ce type de femme est fréquent, mais à l'époque [années trente], c'était un genre nouveau, quoique pas pour moi. Je pensais tout naturellement que les filles pouvaient faire les choses que faisaient les garçons. » 
+Mildred Wirt Benson touchait un chèque de 125 dollars pour chaque roman de la série Alice qu'elle écrivait. Le titre préféré de l'auteur était Alice au manoir hanté (The Hidden Staircase), le second tome de la série.
 En 1947, Mildred démissionne du Stratemeyer Syndicate. La fille d'Edward Stratemeyer, Harriet Adams, qui dirige la compagnie depuis la mort de son père en 1930, prend alors la relève : à partir de 1959, elle réécrit tous les titres de la série, y compris ceux écrits par Mildred Wirt Benson, ce, afin de les moderniser. Ce fut fait contre l’avis de Mildred qui considère que les changements opérés « ont ôté toute saveur aux histoires. »
 En 2001, l'organisation new-yorkaise « Mystery Writers of America » (littéralement : Les Écrivains de romans policiers d'Amérique) décernera à Mildred Wirt Benson le Prix Edgar-Allan-Poe pour sa contribution à la série Alice. 
-À la mort de Mildred Wirt Benson, le journal français Libération lui rend hommage dans un petit article intitulé Mort de Caroline Quine, créatrice d'Alice[8].
+À la mort de Mildred Wirt Benson, le journal français Libération lui rend hommage dans un petit article intitulé Mort de Caroline Quine, créatrice d'Alice.
 </t>
         </is>
       </c>
@@ -585,8 +601,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Série Alice
-23 volumes écrits :
+          <t>Série Alice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23 volumes écrits :
 Alice détective, 1930
 Alice au manoir hanté, 1930
 Alice au camp des biches, 1930
@@ -595,7 +616,7 @@
 Alice et les Faux-monnayeurs, 1931
 Alice et le Carnet vert, 1932
 Alice et le Médaillon d'or, 1934
-Alice au Canada[9], 1935
+Alice au Canada, 1935
 Alice et le Talisman d'ivoire, 1936
 Alice et la Statue qui parle, 1937
 Alice et les Contrebandiers, 1937
@@ -610,8 +631,43 @@
 Alice et le Violon tzigane, 1947
 Alice et l'Esprit frappeur, 1948
 Alice au bal masqué, 1953
-Série Une enquête des sœurs Parker
-16 volumes écrits :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre complète</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Une enquête des sœurs Parker</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16 volumes écrits :
 The Secret at the Hermitage, 1936 (inédit en France)
 Sur les traces de l’homme masqué, 1937
 Le Secret de la chambre close, 1938
@@ -623,7 +679,43 @@
 Le Secret du clocher, 1952
 Le Mystère de l’anneau de jade, 1953
 L’Inconnu du carrefour, 1954
-Série Penny Parker
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre complète</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Penny Parker</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tale of the Witch Doll, 1939
 The Vanishing Houseboat, 1939
 Danger at the Drawbridge, 1940
@@ -641,25 +733,233 @@
 Whispering Walls, 1946
 Swamp Island, 1947
 The Cry at Midnight, 1947
-Série Penny Nichols
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre complète</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Penny Nichols</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Penny Nichols Finds a Clue, 1936
 Penny Nichols and the Mystery of the Lost Key, 1936
 Penny Nichols and the Black Imp, 1936
 Penny Nichols and the Knob Hill Mystery, 1939
-Série Connie Carl
-Connie Carl at Rainbow Ranch, 1939
-Série Madge Sterling
-Trois volumes écrits dans cette série inédite en France :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre complète</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Connie Carl</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Connie Carl at Rainbow Ranch, 1939</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre complète</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Série Madge Sterling</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Trois volumes écrits dans cette série inédite en France :
 The Missing Formula, 1932
 The Deserted Yacht, 1932
-The Secret of the Sundial, 1932
-Série Flash Evans
-Flash Evans and the Darkroom Mystery, 1940
-Flash Evans, Camera News Hawk, 1940
-Série Doris Force
-Doris Force at Locked Gates, 1931
-Doris Force at Cloudy Cove, 1931
-Série Ruth Fielding
+The Secret of the Sundial, 1932</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre complète</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Série Flash Evans</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Flash Evans and the Darkroom Mystery, 1940
+Flash Evans, Camera News Hawk, 1940</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre complète</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Série Doris Force</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Doris Force at Locked Gates, 1931
+Doris Force at Cloudy Cove, 1931</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre complète</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Série Ruth Fielding</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ruth Fielding and Her Great Scenario, 1927
 Ruth Fielding at Cameron Hall, 1928
 Ruth Fielding Clearing Her Name, 1929
@@ -668,7 +968,43 @@
 Ruth Fielding and Her Double, 1932
 Ruth Fielding and Her Greatest Triumph, 1933
 Ruth Fielding and Her Crowning Victory, 1934
-Série Kay Tracey
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre complète</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Série Kay Tracey</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Mystery of the Swaying Curtains, 1935
 The Shadow on the Door, 1935
 The Six Fingered Glove Mystery, 1936
@@ -680,30 +1016,208 @@
 When the Key Turned, 1939
 In the Sunken Garden, 1939
 The Sacred Feather, 1940
-Série Ruth Darrow
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre complète</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Série Ruth Darrow</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ruth Darrow in the Air Derby, 1930
 Ruth Darrow in the Fire Patrol, 1930
 Ruth Darrow in the Coast Guard, 1931
 Ruth Darrow in Yucatan, 1931
-Série Brownie Scout
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre complète</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Série Brownie Scout</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Brownie Scouts at Snow Valley, 1949
 The Brownie Scouts in the Circus, 1949
 The Brownie Scouts in the Cherry Festival, 1950
 The Brownie Scouts and Their Tree House, 1951
 The Brownie Scouts at Silver Beach, 1952
 The Brownie Scouts at Windmill Farm, 1953
-Série Dan Carter, Cub Scout
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvre complète</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Série Dan Carter, Cub Scout</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dan Carter, Cub Scout, 1949
 Dan Carter and the River Camp, 1949
 Dan Carter and the Money Box, 1950
 Dan Carter and the Haunted Castle, 1951
 Dan Carter and the Great Carved Face, 1952
 Dan Carter and the Cub Honor, 1953
-Série Girl Scout
-The Girl Scouts at Penguin Pass, 1953
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvre complète</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Série Girl Scout</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>The Girl Scouts at Penguin Pass, 1953
 The Girl Scouts at Singing Sands, 1955
-The Girl Scouts at Mystery Mansion, 1957
-Série Mildred A. Wirt Mystery Stories
+The Girl Scouts at Mystery Mansion, 1957</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Œuvre complète</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Série Mildred A. Wirt Mystery Stories</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Clue at Crooked Lane, 1936
 The Hollow Wall Mystery, 1936
 The Shadow Stone, 1937
@@ -711,8 +1225,43 @@
 Through the Moon-Gate Door, 1938
 Ghost Gables, 1939
 The Painted Shield, 1939
-Romans hors série
-Dangerous Deadline, 1957
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mildred_Wirt_Benson</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Œuvre complète</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Romans hors série</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Dangerous Deadline, 1957
 Quarry Ghost, 1959
 Kristie at College [Quarry Ghost], 1960</t>
         </is>
